--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23120"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="341" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{07682C91-880F-4681-B370-54C04C2A2EC1}"/>
+  <xr:revisionPtr revIDLastSave="363" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F8CB2547-4E56-425F-A404-413941A1AFE4}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="6" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="133">
   <si>
     <t>改定履歴</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>tasksテーブルの作成</t>
+  </si>
+  <si>
+    <t>ダイレクトチャットのカラム名を修正</t>
+  </si>
+  <si>
+    <t>ファイル送信のカラム名、デフォルト値、備考を修正</t>
   </si>
   <si>
     <t>table_names</t>
@@ -746,16 +752,16 @@
     <t>ファイル送信</t>
   </si>
   <si>
-    <t>file_allowed</t>
+    <t>is_sendable</t>
   </si>
   <si>
-    <t>1:ファイル送信拒否</t>
+    <t>1:送信可</t>
   </si>
   <si>
     <t>ダイレクトチャット</t>
   </si>
   <si>
-    <t>direct_chat</t>
+    <t>is_directed</t>
   </si>
   <si>
     <t>1:ダイレクトチャット</t>
@@ -1034,12 +1040,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1267,7 +1273,7 @@
   <dimension ref="A1:Z1030"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1377,7 +1383,7 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="12.75">
-      <c r="A4" s="28">
+      <c r="A4" s="26">
         <v>44036</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1413,7 +1419,7 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="12.75">
-      <c r="A5" s="28">
+      <c r="A5" s="26">
         <v>44036</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1449,7 +1455,7 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="12.75">
-      <c r="A6" s="28">
+      <c r="A6" s="26">
         <v>44036</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1485,7 +1491,7 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="12.75">
-      <c r="A7" s="28">
+      <c r="A7" s="26">
         <v>44036</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1521,7 +1527,7 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="12.75">
-      <c r="A8" s="28">
+      <c r="A8" s="26">
         <v>44036</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1557,7 +1563,7 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="12.75">
-      <c r="A9" s="28">
+      <c r="A9" s="26">
         <v>44036</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1593,10 +1599,18 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="12.75">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="8">
+        <v>44045</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1621,10 +1635,18 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="12.75">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="8">
+        <v>44045</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -30194,7 +30216,7 @@
   </sheetPr>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
@@ -30213,167 +30235,167 @@
         <v>2</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="25"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -30383,23 +30405,23 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="25"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
@@ -30408,123 +30430,123 @@
         <v>0</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+        <v>51</v>
+      </c>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="25"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="20"/>
       <c r="H9" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="25"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10" s="16">
         <v>11</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="25"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="20"/>
       <c r="H11" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30566,79 +30588,79 @@
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -30654,7 +30676,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30670,7 +30692,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="25"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30686,7 +30708,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="25"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30702,7 +30724,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="25"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30718,7 +30740,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="25"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30734,7 +30756,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="25"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30750,7 +30772,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30766,7 +30788,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="25"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -30782,7 +30804,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="25"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -30798,7 +30820,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="25"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -30814,7 +30836,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="25"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -30849,7 +30871,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="E11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -30875,201 +30897,201 @@
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="25"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="25"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F8" s="16">
         <v>100</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="25"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -31078,64 +31100,64 @@
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="27" t="s">
-        <v>77</v>
+      <c r="K9" s="25" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="25"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="20"/>
       <c r="H10" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="25"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D11" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="20"/>
       <c r="H11" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -31151,7 +31173,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="25"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -31167,7 +31189,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="25"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -31183,7 +31205,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="25"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31199,7 +31221,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="25"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -31260,121 +31282,121 @@
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F6" s="16">
         <v>1000</v>
@@ -31386,19 +31408,19 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="25"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F7" s="16">
         <v>13</v>
@@ -31410,19 +31432,19 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="25"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F8" s="16">
         <v>13</v>
@@ -31434,7 +31456,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="25"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -31450,7 +31472,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="25"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31466,7 +31488,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="25"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -31482,7 +31504,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -31498,7 +31520,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="25"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -31514,7 +31536,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="25"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -31530,7 +31552,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="25"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31546,7 +31568,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="25"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -31580,9 +31602,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31609,151 +31631,151 @@
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="25"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -31765,49 +31787,49 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="25"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
       </c>
       <c r="G8" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="25"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -31816,28 +31838,28 @@
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="25"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F10" s="16">
         <v>1</v>
@@ -31846,120 +31868,120 @@
         <v>0</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="25"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="20"/>
       <c r="H11" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="25"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="20"/>
       <c r="H13" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="25"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F14" s="16">
         <v>11</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="25"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31975,7 +31997,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="25"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -32010,7 +32032,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="E15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -32036,177 +32058,177 @@
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="25"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="25"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F8" s="16">
         <v>100</v>
@@ -32218,19 +32240,19 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="25"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -32239,92 +32261,92 @@
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="25"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="20"/>
       <c r="H10" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="25"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F11" s="16">
         <v>11</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="25"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -32340,7 +32362,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="25"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -32356,7 +32378,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="25"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -32372,7 +32394,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="25"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -32433,161 +32455,161 @@
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="25"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="25"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -32603,7 +32625,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="25"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -32619,7 +32641,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="25"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -32635,7 +32657,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="25"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -32651,7 +32673,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -32667,7 +32689,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="25"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -32683,7 +32705,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="25"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -32699,7 +32721,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="25"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -32715,7 +32737,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="25"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -32776,205 +32798,205 @@
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="25"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="25"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F8" s="16">
         <v>11</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="25"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="20"/>
@@ -32984,19 +33006,19 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="25"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F10" s="16">
         <v>1</v>
@@ -33005,28 +33027,28 @@
         <v>0</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="25"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F11" s="16">
         <v>1</v>
@@ -33035,120 +33057,120 @@
         <v>0</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="25"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F13" s="17">
         <v>11</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="25"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D14" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="20"/>
       <c r="H14" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="25"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F15" s="17">
         <v>11</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="25"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>

--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23120"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23211"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="363" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F8CB2547-4E56-425F-A404-413941A1AFE4}"/>
+  <xr:revisionPtr revIDLastSave="380" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9497B41D-C91D-4BD6-A106-985721002281}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="134">
   <si>
     <t>改定履歴</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>ファイル送信のカラム名、デフォルト値、備考を修正</t>
+  </si>
+  <si>
+    <t>ファイル送信のカラム名を修正</t>
   </si>
   <si>
     <t>table_names</t>
@@ -752,7 +755,7 @@
     <t>ファイル送信</t>
   </si>
   <si>
-    <t>is_sendable</t>
+    <t>allow_file_send</t>
   </si>
   <si>
     <t>1:送信可</t>
@@ -761,7 +764,7 @@
     <t>ダイレクトチャット</t>
   </si>
   <si>
-    <t>is_directed</t>
+    <t>allow_direct_chat</t>
   </si>
   <si>
     <t>1:ダイレクトチャット</t>
@@ -1272,8 +1275,8 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1671,10 +1674,18 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="12.75">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="8">
+        <v>44058</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1699,10 +1710,18 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="12.75">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="8">
+        <v>44058</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -30235,7 +30254,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -30251,10 +30270,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -30270,10 +30289,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -30290,34 +30309,34 @@
     <row r="4" spans="1:13">
       <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
@@ -30329,26 +30348,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="27"/>
@@ -30361,20 +30380,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -30389,13 +30408,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -30415,13 +30434,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
@@ -30430,12 +30449,12 @@
         <v>0</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
@@ -30447,18 +30466,18 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="20"/>
       <c r="H9" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
@@ -30473,20 +30492,20 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="16">
         <v>11</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -30501,18 +30520,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="20"/>
       <c r="H11" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -30527,20 +30546,20 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -30598,7 +30617,7 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -30613,7 +30632,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -30629,34 +30648,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -30907,10 +30926,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -30924,7 +30943,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -30940,34 +30959,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -30977,26 +30996,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -31007,20 +31026,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -31033,20 +31052,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -31059,20 +31078,20 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" s="16">
         <v>100</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
@@ -31085,13 +31104,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -31100,12 +31119,12 @@
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -31115,18 +31134,18 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="20"/>
       <c r="H10" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -31139,18 +31158,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="20"/>
       <c r="H11" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -31292,10 +31311,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -31309,7 +31328,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -31325,34 +31344,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -31362,23 +31381,23 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="20"/>
@@ -31390,13 +31409,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F6" s="16">
         <v>1000</v>
@@ -31414,13 +31433,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F7" s="16">
         <v>13</v>
@@ -31438,13 +31457,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" s="16">
         <v>13</v>
@@ -31602,9 +31621,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31641,10 +31660,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -31658,7 +31677,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -31674,34 +31693,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -31711,26 +31730,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -31741,24 +31760,24 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K6" s="20"/>
     </row>
@@ -31769,13 +31788,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -31793,13 +31812,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
@@ -31808,12 +31827,12 @@
         <v>1</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
@@ -31823,13 +31842,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -31838,12 +31857,12 @@
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -31853,13 +31872,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" s="16">
         <v>1</v>
@@ -31868,12 +31887,12 @@
         <v>0</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -31883,18 +31902,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="20"/>
       <c r="H11" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -31907,23 +31926,23 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
@@ -31935,18 +31954,18 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="20"/>
       <c r="H13" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -31959,23 +31978,23 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="16">
         <v>11</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
@@ -32068,10 +32087,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -32085,7 +32104,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -32101,34 +32120,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -32138,26 +32157,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -32168,23 +32187,23 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
@@ -32196,20 +32215,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -32222,13 +32241,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" s="16">
         <v>100</v>
@@ -32246,13 +32265,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -32261,12 +32280,12 @@
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -32276,18 +32295,18 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="20"/>
       <c r="H10" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -32300,23 +32319,23 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F11" s="16">
         <v>11</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
@@ -32328,18 +32347,18 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -32465,10 +32484,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -32482,7 +32501,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -32498,34 +32517,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -32535,23 +32554,23 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="20"/>
@@ -32563,23 +32582,23 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
@@ -32591,18 +32610,18 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -32808,10 +32827,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -32825,7 +32844,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -32841,34 +32860,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -32878,26 +32897,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -32908,23 +32927,23 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
@@ -32936,20 +32955,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -32962,23 +32981,23 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F8" s="16">
         <v>11</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
@@ -32990,13 +33009,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="20"/>
@@ -33012,13 +33031,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" s="16">
         <v>1</v>
@@ -33027,12 +33046,12 @@
         <v>0</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -33042,13 +33061,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11" s="16">
         <v>1</v>
@@ -33057,12 +33076,12 @@
         <v>0</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
@@ -33072,18 +33091,18 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -33096,23 +33115,23 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F13" s="17">
         <v>11</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
@@ -33124,18 +33143,18 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="20"/>
       <c r="H14" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -33148,23 +33167,23 @@
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F15" s="17">
         <v>11</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
